--- a/data/trans_dic/P70B_R2_2023-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P70B_R2_2023-Clase-trans_dic.xlsx
@@ -564,13 +564,13 @@
         </is>
       </c>
       <c r="C4" s="5" t="n">
-        <v>0.0747265160425216</v>
+        <v>0.07472651604252162</v>
       </c>
       <c r="D4" s="5" t="n">
         <v>0.1055611898918644</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0.08928073783279247</v>
+        <v>0.08928073783279249</v>
       </c>
     </row>
     <row r="5">
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.04702750553620296</v>
+        <v>0.04771431064083319</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.07796465137148803</v>
+        <v>0.07872236964025718</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.0702337748220804</v>
+        <v>0.0689870456536619</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.1100350821473341</v>
+        <v>0.1100399116308085</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.1376034475785088</v>
+        <v>0.141142753514876</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.1134963947767251</v>
+        <v>0.1125937025379273</v>
       </c>
     </row>
     <row r="7">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.08788751927976457</v>
+        <v>0.08828833164610811</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.06835534342871667</v>
+        <v>0.06903196044306417</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.0864886579561148</v>
+        <v>0.08527224390409296</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.1767466281675835</v>
+        <v>0.1723535005338881</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.1321322887938609</v>
+        <v>0.1341875111276463</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.143926156925484</v>
+        <v>0.1398325644186473</v>
       </c>
     </row>
     <row r="10">
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.1067369736729953</v>
+        <v>0.1094889776003217</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.1258933556542173</v>
+        <v>0.1202695148778598</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.1240482856327664</v>
+        <v>0.1200369305961474</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.2043963502211623</v>
+        <v>0.2033063299805604</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.2839944430633289</v>
+        <v>0.2753882400617835</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.2040762566011325</v>
+        <v>0.2023781775171246</v>
       </c>
     </row>
     <row r="13">
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.1746191669157879</v>
+        <v>0.1731435088923788</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.1666292102102583</v>
+        <v>0.165660065289502</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1813744283311026</v>
+        <v>0.1791573922827435</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.2535706800691375</v>
+        <v>0.2534677787723881</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.2296846577683409</v>
+        <v>0.2301211988278048</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.233826715329944</v>
+        <v>0.231918394579183</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.09665302330073269</v>
+        <v>0.09649075522259293</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.1158520949029312</v>
+        <v>0.1147204930320409</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.1159647980354058</v>
+        <v>0.1160382973277848</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.1988994763395769</v>
+        <v>0.197388831267175</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.1940202028648794</v>
+        <v>0.1920116179017094</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.1760180479157461</v>
+        <v>0.1785917780530669</v>
       </c>
     </row>
     <row r="19">
@@ -856,13 +856,13 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.12845854874591</v>
+        <v>0.1293929767950377</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.1322238153128741</v>
+        <v>0.1312411662139789</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.1354250749237005</v>
+        <v>0.1351493715966789</v>
       </c>
     </row>
     <row r="21">
@@ -873,13 +873,13 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.1662010236286834</v>
+        <v>0.167761386850996</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.1656922682781976</v>
+        <v>0.1633765791763973</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.1618984621192639</v>
+        <v>0.1615591924705764</v>
       </c>
     </row>
     <row r="22">
@@ -1022,13 +1022,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>17538</v>
+        <v>17794</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>25992</v>
+        <v>26245</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>49607</v>
+        <v>48726</v>
       </c>
     </row>
     <row r="7">
@@ -1039,13 +1039,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>41035</v>
+        <v>41037</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>45875</v>
+        <v>47055</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>80163</v>
+        <v>79526</v>
       </c>
     </row>
     <row r="8">
@@ -1094,13 +1094,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>27876</v>
+        <v>28003</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>18534</v>
+        <v>18718</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>50883</v>
+        <v>50168</v>
       </c>
     </row>
     <row r="11">
@@ -1111,13 +1111,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>56060</v>
+        <v>54667</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>35827</v>
+        <v>36384</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>84675</v>
+        <v>82267</v>
       </c>
     </row>
     <row r="12">
@@ -1166,13 +1166,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>28458</v>
+        <v>29192</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>10193</v>
+        <v>9737</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>43117</v>
+        <v>41723</v>
       </c>
     </row>
     <row r="15">
@@ -1183,13 +1183,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>54496</v>
+        <v>54206</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>22993</v>
+        <v>22296</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>70933</v>
+        <v>70343</v>
       </c>
     </row>
     <row r="16">
@@ -1238,13 +1238,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>107254</v>
+        <v>106348</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>78852</v>
+        <v>78394</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>197233</v>
+        <v>194823</v>
       </c>
     </row>
     <row r="19">
@@ -1255,13 +1255,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>155748</v>
+        <v>155684</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>108692</v>
+        <v>108898</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>254272</v>
+        <v>252197</v>
       </c>
     </row>
     <row r="20">
@@ -1310,13 +1310,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>29592</v>
+        <v>29542</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>35453</v>
+        <v>35107</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>70992</v>
+        <v>71037</v>
       </c>
     </row>
     <row r="23">
@@ -1327,13 +1327,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>60896</v>
+        <v>60434</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>59375</v>
+        <v>58760</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>107756</v>
+        <v>109332</v>
       </c>
     </row>
     <row r="24">
@@ -1382,13 +1382,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>241130</v>
+        <v>242884</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>193673</v>
+        <v>192234</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>452569</v>
+        <v>451648</v>
       </c>
     </row>
     <row r="27">
@@ -1399,13 +1399,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>311977</v>
+        <v>314906</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>242695</v>
+        <v>239304</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>541039</v>
+        <v>539905</v>
       </c>
     </row>
     <row r="28">
